--- a/biology/Botanique/Vignoble_auxerrois/Vignoble_auxerrois.xlsx
+++ b/biology/Botanique/Vignoble_auxerrois/Vignoble_auxerrois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble auxerrois est situé au sud, sud-est de la ville d'Auxerre dans le département de l'Yonne en Bourgogne-Franche-Comté. Le vignoble s'étend au sud ouest du village de Mouffy sur l'appellation Bourgogne Coulanges-la-Vineuse, à Irancy au sud-est, et Chitry à l'est.
 </t>
@@ -537,18 +551,89 @@
           <t>Le vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le vignoble de l'Auxerrois s'étend sur une superficie totale de 1300 hectares. On y produit notamment cinq appellations spécifiques (deux communales et trois régionales).
-Appellations communales
-Irancy : La surface totale plantée est de 160 hectares[1]. Irancy est situé sur les communes d'Irancy, de Cravant et de Vincelottes à environ 15 kilomètres au sud-est d'Auxerre. On y produit exclusivement du vin rouge.
-Saint-Bris : superficies en production de 133 hectares[2]. L'appellation Saint-Bris se trouve à une dizaine de kilomètres au sud-est d'Auxerre, sur les territoires des communes de Chitry, Irancy, Quenne, Saint-Bris-le-Vineux et Vincelottes.
-Appellations régionales
-Bourgogne Côte d'Auxerre : la superficie en production est de 213 hectares[3] avec 117 hectares de vins rouges et rosés et 76 hectares de vins blancs. Les vignes sont sur les communes de Augy, Auxerre, Vaux, Quenne, Saint-Bris-le-Vineux, Vincelottes et Champs-sur-Yonne
-Bourgogne Coulanges-la-Vineuse : superficie en production de 124 hectares[4] avec 77 hectares de vins rouges et rosés, et 15,5 hectares de vins blancs. L'appellation Bourgogne Coulanges-la-Vineuse est produite sur les communes de Coulanges-la-Vineuse, Escolives-Sainte-Camille, Jussy, Migé, Mouffy et Val-de-Mercy
-Bourgogne Chitry : superficie en production de 86 hectares avec 50 hectares de vins rouges et rosés[5], et 36 hectares de vins blancs[5]. Le vignoble est situé exclusivement sur les terres de la commune de Chitry.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de l'Auxerrois s'étend sur une superficie totale de 1300 hectares. On y produit notamment cinq appellations spécifiques (deux communales et trois régionales).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vignoble_auxerrois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_auxerrois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appellations communales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Irancy : La surface totale plantée est de 160 hectares. Irancy est situé sur les communes d'Irancy, de Cravant et de Vincelottes à environ 15 kilomètres au sud-est d'Auxerre. On y produit exclusivement du vin rouge.
+Saint-Bris : superficies en production de 133 hectares. L'appellation Saint-Bris se trouve à une dizaine de kilomètres au sud-est d'Auxerre, sur les territoires des communes de Chitry, Irancy, Quenne, Saint-Bris-le-Vineux et Vincelottes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vignoble_auxerrois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_auxerrois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appellations régionales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bourgogne Côte d'Auxerre : la superficie en production est de 213 hectares avec 117 hectares de vins rouges et rosés et 76 hectares de vins blancs. Les vignes sont sur les communes de Augy, Auxerre, Vaux, Quenne, Saint-Bris-le-Vineux, Vincelottes et Champs-sur-Yonne
+Bourgogne Coulanges-la-Vineuse : superficie en production de 124 hectares avec 77 hectares de vins rouges et rosés, et 15,5 hectares de vins blancs. L'appellation Bourgogne Coulanges-la-Vineuse est produite sur les communes de Coulanges-la-Vineuse, Escolives-Sainte-Camille, Jussy, Migé, Mouffy et Val-de-Mercy
+Bourgogne Chitry : superficie en production de 86 hectares avec 50 hectares de vins rouges et rosés, et 36 hectares de vins blancs. Le vignoble est situé exclusivement sur les terres de la commune de Chitry.
 Sur les cinq différents terroirs cités précédemment, les vignerons produisent également ces quatre autres appellations d'origines contrôlées de Bourgogne :
-Crémant de Bourgogne : produit notamment par les Caves Bailly Lapierre qui représente 21 % de part de marché de l'appellation Crémant de Bourgogne[6] et 3,5 millions de bouteille[6].
+Crémant de Bourgogne : produit notamment par les Caves Bailly Lapierre qui représente 21 % de part de marché de l'appellation Crémant de Bourgogne et 3,5 millions de bouteille.
 Bourgogne aligoté (AOC)
 Bourgogne passe-tout-grains (AOC)
 Bourgogne grand ordinaire (AOC)</t>
